--- a/powerapp/data/flaglist_incomer.xlsx
+++ b/powerapp/data/flaglist_incomer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB04A11B-A3B1-DF46-B1CB-8234C2427E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4A1AD2-E18E-D44A-8663-139EBCC9B6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="34420" windowHeight="26380" xr2:uid="{394D7C25-B5CE-4E25-A308-C4BD4050D992}"/>
   </bookViews>
@@ -853,7 +853,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1722,11 +1722,8 @@
   </sheetData>
   <autoFilter ref="A1:A49" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51:B1048576" xr:uid="{F2411696-DDBB-CB42-B518-E3BC30F22D22}">
-      <formula1>"dn, gso"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50" xr:uid="{BE997B59-1A08-6244-B145-8F85DCAFB0F4}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{F2411696-DDBB-CB42-B518-E3BC30F22D22}">
       <formula1>"dn, gso"</formula1>
     </dataValidation>
   </dataValidations>
